--- a/biology/Zoologie/Epitrix/Epitrix.xlsx
+++ b/biology/Zoologie/Epitrix/Epitrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epitrix est un genre d'insectes coléoptères de la famille des Chrysomelidae. Plusieurs espèces de ce genre sont des ravageurs des cultures, notamment Epitrix cucumeris, Epitrix similaris et Epitrix tuberis, dont les larves causent des dégâts aux tubercules de pomme de terre. Ces petits insectes sont aussi les vecteurs de phytovirus.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (30 avril 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (30 avril 2023) :
 Epitrix abeillei
 Epitrix atropae
 Epitrix brevis
@@ -525,7 +539,7 @@
 Epitrix similaris
 Epitrix subcrinita
 Epitrix tuberis
-Selon ITIS      (30 sept. 2010)[2] :
+Selon ITIS      (30 sept. 2010) :
 Epitrix brevis Schwarz, 1878
 Epitrix cucumeris (Harris, 1851)
 Epitrix fasciata Blatchley, 1918
@@ -565,9 +579,11 @@
           <t>Espèces déprédatrices des cultures</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cinq espèces d'Epitrix sont connues pour être des ravageurs des cultures en Amérique du Nord, principalement sur les Solanaceae (aubergine, piment, pomme de terre, tomate, tabac) : Epitrix cucumeris, Epitrix fuscula, Epitrix hirtipennis, Epitrix subcrinita et Epitrix tuberis. Deux d'entre elles affectent plus particulièrement les cultures de pomme de terre : E. cucumeris (l'altise de la pomme de terre)  et E. tuberis (l'altise des tubercules) et sont reprises dans la liste des organismes de quarantaine de l'Organisation européenne et méditerranéenne pour la protection des plantes (OEPP). Une autre espèce, Epitrix similaris, considérée comme une menace pour les cultures de pommes de terre, et dont la présence a été détectée au Portugal en 2008, a été ajoutée à la liste d'alerte de cet organisme[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cinq espèces d'Epitrix sont connues pour être des ravageurs des cultures en Amérique du Nord, principalement sur les Solanaceae (aubergine, piment, pomme de terre, tomate, tabac) : Epitrix cucumeris, Epitrix fuscula, Epitrix hirtipennis, Epitrix subcrinita et Epitrix tuberis. Deux d'entre elles affectent plus particulièrement les cultures de pomme de terre : E. cucumeris (l'altise de la pomme de terre)  et E. tuberis (l'altise des tubercules) et sont reprises dans la liste des organismes de quarantaine de l'Organisation européenne et méditerranéenne pour la protection des plantes (OEPP). Une autre espèce, Epitrix similaris, considérée comme une menace pour les cultures de pommes de terre, et dont la présence a été détectée au Portugal en 2008, a été ajoutée à la liste d'alerte de cet organisme.
 </t>
         </is>
       </c>
